--- a/medicine/Enfance/Kéthévane_Davrichewy/Kéthévane_Davrichewy.xlsx
+++ b/medicine/Enfance/Kéthévane_Davrichewy/Kéthévane_Davrichewy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9th%C3%A9vane_Davrichewy</t>
+          <t>Kéthévane_Davrichewy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kéthévane Davrichewy[1] est une écrivaine française née à Paris, le 5 avril 1965.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kéthévane Davrichewy est une écrivaine française née à Paris, le 5 avril 1965.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9th%C3%A9vane_Davrichewy</t>
+          <t>Kéthévane_Davrichewy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine géorgienne[2],[3], Kéthévane Davrichewy est née et vit à Paris. Elle est romancière. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine géorgienne Kéthévane Davrichewy est née et vit à Paris. Elle est romancière. 
 Elle a signé de nombreux livres pour la jeunesse à L'École des Loisirs avant de publier un premier roman en 2004 aux éditions Arléa. Elle a ensuite publié ses romans aux éditions Sabine Wespieser.
-La Mer Noire[4] paru en 2010 a été traduit dans de nombreux pays et a obtenu le prix Landerneau 2010[5] et le prix Le Prince-Maurice du roman d'amour 2011[6].
-Ont suivi  Les Séparées[7] en 2012, Quatre murs[8] en 2014 et L'autre Joseph[9] en 2016, qui a reçu le prix des Deux Magots[10] en 2017. 
-Elle a écrit deux récits sur l'univers d'auteurs-compositeurs-interprètes : en 2018, Barbara, Notre plus belle histoire d'amour autour de Barbara, et en 2020, Un chanteur, autour de Alex Beaupain[11].
+La Mer Noire paru en 2010 a été traduit dans de nombreux pays et a obtenu le prix Landerneau 2010 et le prix Le Prince-Maurice du roman d'amour 2011.
+Ont suivi  Les Séparées en 2012, Quatre murs en 2014 et L'autre Joseph en 2016, qui a reçu le prix des Deux Magots en 2017. 
+Elle a écrit deux récits sur l'univers d'auteurs-compositeurs-interprètes : en 2018, Barbara, Notre plus belle histoire d'amour autour de Barbara, et en 2020, Un chanteur, autour de Alex Beaupain.
 Son premier roman Tout ira bien a inspiré un spectacle musical mis en scène par Diastème que l'auteur a interprété avec Alex Beaupain, et Valentine Duteil au violoncelle.
-En 2022 est publié son ouvrage Nous nous aimions. Selon la critique du magazine Télérama : « Kéthévane Davrichewy a l’art de sonder les arrière-pensées silencieuses, celles qui nourrissent des rêves de liberté, mais aussi celles qui préservent l’ultime dignité face aux humiliations, comme dans son magnifique chapitre d’ouverture où deux fillettes en transit à l’aéroport de Moscou subissent le sadisme de douanières envieuses de leur exil en France. Ces deux enfants vont grandir, par à-coups, par accrocs, tout en maintenant un semblant de fluidité[12] ».
+En 2022 est publié son ouvrage Nous nous aimions. Selon la critique du magazine Télérama : « Kéthévane Davrichewy a l’art de sonder les arrière-pensées silencieuses, celles qui nourrissent des rêves de liberté, mais aussi celles qui préservent l’ultime dignité face aux humiliations, comme dans son magnifique chapitre d’ouverture où deux fillettes en transit à l’aéroport de Moscou subissent le sadisme de douanières envieuses de leur exil en France. Ces deux enfants vont grandir, par à-coups, par accrocs, tout en maintenant un semblant de fluidité ».
 Kéthévane Davrichewy est aussi journaliste, et collabore également à l'écriture de scénarios. Elle joue un petit rôle, crédité au générique, dans le long-métrage La Belle Personne de Christophe Honoré, sorti en 2005.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9th%C3%A9vane_Davrichewy</t>
+          <t>Kéthévane_Davrichewy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,19 +565,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Tout ira bien, Paris, Éditions Arléa, coll. « 1er Mille », 2004, 94 p.  (ISBN 978-2-86959-670-2)
-La Mer noire[4], Paris, éd. Sabine Wespieser, 2010, 214 p.  (ISBN 978-2-84805-078-2) Prix « Le Prince-Maurice » du roman d'amour[6]  2011 et Prix Landerneau 2010[13] 
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tout ira bien, Paris, Éditions Arléa, coll. « 1er Mille », 2004, 94 p.  (ISBN 978-2-86959-670-2)
+La Mer noire, Paris, éd. Sabine Wespieser, 2010, 214 p.  (ISBN 978-2-84805-078-2) Prix « Le Prince-Maurice » du roman d'amour  2011 et Prix Landerneau 2010 
 Les Séparées, Paris, éd. Sabine Wespieser, 2012, 181 p.  (ISBN 978-2-84805-106-2)
-Quatre murs[8], Paris, éd. Sabine Wespieser, 2014, 192 p.  (ISBN 978-2-84805-159-8)
-L'Autre Joseph[2],[9] , éd. Sabine Wespieser, 2016, 240 p.  (ISBN 978-2-84805-200-7) Prix des Deux Magots 2017[10] 
+Quatre murs, Paris, éd. Sabine Wespieser, 2014, 192 p.  (ISBN 978-2-84805-159-8)
+L'Autre Joseph, , éd. Sabine Wespieser, 2016, 240 p.  (ISBN 978-2-84805-200-7) Prix des Deux Magots 2017 
 L'Autre Joseph, audiolivre lu par Marjorie Frantz, éditions Sixtrid, 2016  (EAN 3358950003204) - 1 CD MP3 de 5h57
-Nous nous aimions[12],  éd Sabine Wespieser, 2022, 145 p. (ISBN 9782848054575)
-Récits
-Barbara, notre plus belle histoire d'amour, Éditions Tallandier, 2017, 219 p.  (ISBN 979-10-210-2149-5) - autour de l'auteure-compositrice-interprète Barbara
-Un chanteur[11], Fayard, 2020 - autour de l'auteur-compositeur-interprète Alex Beaupain
-Littérature jeunesse
-Contes géorgiens : Natsarkékia, ill. de Olivier Matouk, Paris, Éditions l'École des Loisirs, coll. « Neuf », 1996, 151 p.  (ISBN 978-2211040990)
+Nous nous aimions,  éd Sabine Wespieser, 2022, 145 p. (ISBN 9782848054575)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kéthévane_Davrichewy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/K%C3%A9th%C3%A9vane_Davrichewy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barbara, notre plus belle histoire d'amour, Éditions Tallandier, 2017, 219 p.  (ISBN 979-10-210-2149-5) - autour de l'auteure-compositrice-interprète Barbara
+Un chanteur, Fayard, 2020 - autour de l'auteur-compositeur-interprète Alex Beaupain</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kéthévane_Davrichewy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/K%C3%A9th%C3%A9vane_Davrichewy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes géorgiens : Natsarkékia, ill. de Olivier Matouk, Paris, Éditions l'École des Loisirs, coll. « Neuf », 1996, 151 p.  (ISBN 978-2211040990)
 Je suis fâché, ill. de Bénédicte Guettier, Paris, Éditions l'École des Loisirs, coll. « Mouche », 1997, 70 p.  (ISBN 978-2211045568)
 Un Papa en exil, ill. Catherine Rebeyrol, de Paris, Éditions l'École des Loisirs, coll. « Mouche », 1997, 71 p.  (ISBN 978-2211043892)
 Je veux des cadeaux, ill. de Bénédicte Guettier, Paris, Éditions l'École des Loisirs, coll. « Mouche », 1998, 64 p.  (ISBN 978-2211047425)
@@ -589,36 +676,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>K%C3%A9th%C3%A9vane_Davrichewy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kéthévane_Davrichewy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/K%C3%A9th%C3%A9vane_Davrichewy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2010 : Prix Landerneau[5] pour La Mer noire
-2011 :  Prix « Le Prince-Maurice » du roman d'amour[6] pour La Mer Noire
-2012 : Sélection Prix France Culture-Télérama[14] pour Les Séparées
-2017 : Prix des Deux Magots pour L'Autre Joseph[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2010 : Prix Landerneau pour La Mer noire
+2011 :  Prix « Le Prince-Maurice » du roman d'amour pour La Mer Noire
+2012 : Sélection Prix France Culture-Télérama pour Les Séparées
+2017 : Prix des Deux Magots pour L'Autre Joseph.</t>
         </is>
       </c>
     </row>
